--- a/biology/Botanique/Pilocarpaceae/Pilocarpaceae.xlsx
+++ b/biology/Botanique/Pilocarpaceae/Pilocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pilocarpaceae sont une famille de champignons lichénisés.  Il s'agit de lichens au thalle encroûtant ou granuleux, dont la répartition est essentiellement tropicale et l'habitat surtout foliicole. Près de 30 genres lui sont actuellement rattachés, dont deux — Byssoloma et Fellhanera — comportent chacun plus de 50 espèces.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée en 1905 par Alexander Zahlbruckner, la famille des Pilocarpaceae a été rétablie en 1986 par Antonin Vězda pour traiter plusieurs genres de lichens foliicoles, notamment Byssoloma et Fellhanera[1]. Plus récemment, à la suite d'analyses de phylogénie moléculaire, y ont été intégrées la famille des Ectolechiaceae et une grande partie des Micareaceae[2].
-Selon Myconet[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 1905 par Alexander Zahlbruckner, la famille des Pilocarpaceae a été rétablie en 1986 par Antonin Vězda pour traiter plusieurs genres de lichens foliicoles, notamment Byssoloma et Fellhanera. Plus récemment, à la suite d'analyses de phylogénie moléculaire, y ont été intégrées la famille des Ectolechiaceae et une grande partie des Micareaceae.
+Selon Myconet :
 Badimia
 Badimiella
 Bapalmuia
